--- a/biology/Biologie cellulaire et moléculaire/Endoréplication/Endoréplication.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Endoréplication/Endoréplication.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Endor%C3%A9plication</t>
+          <t>Endoréplication</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'endoréplication (appelé parfois endomitose) est une variante de la mitose consistant en la réplication de l'ADN du noyau d'une cellule sans divisions de la cellule elle-même : 2n → 4n → 8n → 16n → 32n → 64n.
-Elle a été décrite pour la première fois par Lothar Geitler en 1939 sur l'hémiptère Gerris lateralis[1].
-L'endomitose et l'endoréplication ont une légère différence : dans le premier cas, les chromosomes se condensent comme lors de la mitose et entrent en prophase qui sera stoppée, dans le second on n'observe aucune étape de la mitose[2].
+Elle a été décrite pour la première fois par Lothar Geitler en 1939 sur l'hémiptère Gerris lateralis.
+L'endomitose et l'endoréplication ont une légère différence : dans le premier cas, les chromosomes se condensent comme lors de la mitose et entrent en prophase qui sera stoppée, dans le second on n'observe aucune étape de la mitose.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Endor%C3%A9plication</t>
+          <t>Endoréplication</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Mécanisme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La réplication de l'ADN se déroule normalement comme lors des deux premières phases de la mitose mais il y a inhibition de la métaphase : les chromatides ne migrent pas aux pôles mitotiques opposés.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Endor%C3%A9plication</t>
+          <t>Endoréplication</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Types d'endomitose</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>On distingue : 
 endoréplication polyploïde : les chromosomes se dédoublent mais le noyau ne se divise pas, la cellule a donc deux fois plus de chromosomes.
